--- a/1st-proj OrangeHRM/Data driven testing/data_to_drivetest.xlsx
+++ b/1st-proj OrangeHRM/Data driven testing/data_to_drivetest.xlsx
@@ -1,38 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium projects\selenium\1st-proj OrangeHRM\Data driven testing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$H$6</definedName>
+  </definedNames>
+  <calcPr/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>Principle</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>periods</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>maturity value</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>year(s)</t>
+  </si>
+  <si>
+    <t>Simple Interest</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>months(s)</t>
+  </si>
+  <si>
+    <t>days(s)</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <b val="1"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border/>
     <border>
       <left style="thin">
@@ -68,6 +129,28 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="11"/>
       </left>
       <right style="thin">
@@ -152,43 +235,57 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -456,173 +553,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" showGridLines="0" workbookViewId="0" topLeftCell="C1">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1"/>
   <cols>
-    <col width="16.3516" customWidth="1" style="9" min="1" max="6"/>
-    <col width="16.3516" customWidth="1" style="9" min="7" max="16384"/>
+    <col min="1" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.7" customHeight="1" s="9">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">practice data </t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>fkk you</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>fkk you</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="2" t="n"/>
-    </row>
-    <row r="2" ht="14.7" customHeight="1" s="9">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">practice data </t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">practice data </t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t>fkk you</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="n"/>
-      <c r="E2" s="5" t="n"/>
-      <c r="F2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="26.7" customHeight="1" s="9">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">practice data </t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">practice data </t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">practice data </t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="n"/>
-      <c r="E3" s="8" t="n"/>
-      <c r="F3" s="8" t="n"/>
-    </row>
-    <row r="4" ht="14.35" customHeight="1" s="9">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">practice data </t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">practice data </t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">practice data </t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="n"/>
-      <c r="E4" s="8" t="n"/>
-      <c r="F4" s="8" t="n"/>
-    </row>
-    <row r="5" ht="14.05" customHeight="1" s="9">
-      <c r="A5" s="8" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">practice data </t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">practice data </t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="n"/>
-      <c r="E5" s="8" t="n"/>
-      <c r="F5" s="8" t="n"/>
-    </row>
-    <row r="6" ht="14.05" customHeight="1" s="9">
-      <c r="A6" s="8" t="n"/>
-      <c r="B6" s="8" t="n"/>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">practice data </t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="n"/>
-      <c r="E6" s="8" t="n"/>
-      <c r="F6" s="8" t="n"/>
-    </row>
-    <row r="7" ht="14.05" customHeight="1" s="9">
-      <c r="A7" s="8" t="n"/>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n"/>
-      <c r="D7" s="8" t="n"/>
-      <c r="E7" s="8" t="n"/>
-      <c r="F7" s="8" t="n"/>
-    </row>
-    <row r="8" ht="14.05" customHeight="1" s="9">
-      <c r="A8" s="8" t="n"/>
-      <c r="B8" s="8" t="n"/>
-      <c r="C8" s="8" t="n"/>
-      <c r="D8" s="8" t="n"/>
-      <c r="E8" s="8" t="n"/>
-      <c r="F8" s="8" t="n"/>
-    </row>
-    <row r="9" ht="14.05" customHeight="1" s="9">
-      <c r="A9" s="8" t="n"/>
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="8" t="n"/>
-      <c r="E9" s="8" t="n"/>
-      <c r="F9" s="8" t="n"/>
-    </row>
-    <row r="10" ht="14.05" customHeight="1" s="9">
-      <c r="A10" s="8" t="n"/>
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="8" t="n"/>
-      <c r="F10" s="8" t="n"/>
+    <row r="1" ht="14.7" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="14.7" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8">
+        <v>24000</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" ht="26.7" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="12">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="12">
+        <v>70000</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" ht="14.35" customHeight="1">
+      <c r="A4" s="12">
+        <v>50000</v>
+      </c>
+      <c r="B4" s="12">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12">
+        <v>51250</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="14.05" customHeight="1">
+      <c r="A5" s="12">
+        <v>75000</v>
+      </c>
+      <c r="B5" s="12">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="12">
+        <v>76500</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="14.05" customHeight="1">
+      <c r="A6" s="12">
+        <v>75000</v>
+      </c>
+      <c r="B6" s="12">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="12">
+        <v>75045.320000000007</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="14.05" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" ht="14.05" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" ht="14.05" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" ht="14.05" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H6">
+    <filterColumn colId="2" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddHeader/>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>